--- a/xlsx/motor-3-jump.xlsx
+++ b/xlsx/motor-3-jump.xlsx
@@ -58,7 +58,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2663,9 +2723,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:S21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:S22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4961,9 +5021,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:S21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:S22">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
